--- a/biology/Zoologie/Ablepharus_chernovi/Ablepharus_chernovi.xlsx
+++ b/biology/Zoologie/Ablepharus_chernovi/Ablepharus_chernovi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ablepharus chernovi est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ablepharus chernovi est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Turquie, en Syrie et en Arménie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Turquie, en Syrie et en Arménie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (25 juin 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (25 juin 2012) :
 Ablepharus chernovi chernovi Darevsky, 1953
 Ablepharus chernovi eiselti Schmidtler, 1997
 Ablepharus chernovi isauriensis Schmidtler, 1997
@@ -576,9 +592,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce fut un temps considérée comme une sous-espèce de Ablepharus kitaibelii et a été élevée au rang d'espèce par Schmidtler, 1997[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce fut un temps considérée comme une sous-espèce de Ablepharus kitaibelii et a été élevée au rang d'espèce par Schmidtler, 1997.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Sergius Aleksandrovich Chernov[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Sergius Aleksandrovich Chernov.
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Darevsky, 1953 : Ablepharus chernovi spec. nov. Reptilia, Sauria in Armenian Republic. Bulletin de la Société des Naturalistes Moscou, vol. 58, no 2, p. 39-41.
 Schmidtler, 1997 : Die Ablepharus kitaibelii - Gruppe in Südanatolien und benachbarten Gebieten (Squamata: Sauria: Scincidae). Herpetozoa, vol. 10, no 1/2, p. 35-62 (texte intégral).</t>
